--- a/investments.xlsx
+++ b/investments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Principal + Interest</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Project Name</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,42 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mora</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>106000</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Long Beach Square</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,42 +475,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Peter</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Mora</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-12-14</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="G2" t="n">
-        <v>106000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Long Beach Square</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>Project Name</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Months To Maturity</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/investments.xlsx
+++ b/investments.xlsx
@@ -1,37 +1,366 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Project Name</t>
+  </si>
+  <si>
+    <t>Note Origin Date</t>
+  </si>
+  <si>
+    <t>Months To Maturity</t>
+  </si>
+  <si>
+    <t>Note Maturity Date</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Interest Rate</t>
+  </si>
+  <si>
+    <t>Principal + Interest</t>
+  </si>
+  <si>
+    <t>Michelle</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Kathleen</t>
+  </si>
+  <si>
+    <t>Kimberly</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Mandy</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Melissa</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Erica</t>
+  </si>
+  <si>
+    <t>Andrea</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Hughes</t>
+  </si>
+  <si>
+    <t>Gray</t>
+  </si>
+  <si>
+    <t>Gaines</t>
+  </si>
+  <si>
+    <t>Leach</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Vega</t>
+  </si>
+  <si>
+    <t>Carr</t>
+  </si>
+  <si>
+    <t>Yates</t>
+  </si>
+  <si>
+    <t>Jimenez</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Johns</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Cooper</t>
+  </si>
+  <si>
+    <t>Incubate Virtual Partnerships</t>
+  </si>
+  <si>
+    <t>Generate Frictionless Platforms</t>
+  </si>
+  <si>
+    <t>Enhance Back-End Info-Mediaries</t>
+  </si>
+  <si>
+    <t>Harness Customized Networks</t>
+  </si>
+  <si>
+    <t>Aggregate Enterprise Web Services</t>
+  </si>
+  <si>
+    <t>Strategize Viral Markets</t>
+  </si>
+  <si>
+    <t>Drive User-Centric Functionalities</t>
+  </si>
+  <si>
+    <t>Seize Transparent Supply-Chains</t>
+  </si>
+  <si>
+    <t>Embrace Strategic Supply-Chains</t>
+  </si>
+  <si>
+    <t>Leverage Distributed Partnerships</t>
+  </si>
+  <si>
+    <t>Monetize Real-Time Networks</t>
+  </si>
+  <si>
+    <t>Aggregate Extensible Functionalities</t>
+  </si>
+  <si>
+    <t>Harness Next-Generation Applications</t>
+  </si>
+  <si>
+    <t>Drive B2B E-Business</t>
+  </si>
+  <si>
+    <t>Seize Dynamic Functionalities</t>
+  </si>
+  <si>
+    <t>Repurpose Revolutionary Communities</t>
+  </si>
+  <si>
+    <t>Transition Killer E-Tailers</t>
+  </si>
+  <si>
+    <t>Brand Holistic Methodologies</t>
+  </si>
+  <si>
+    <t>Redefine Proactive Info-Mediaries</t>
+  </si>
+  <si>
+    <t>Optimize Virtual Experiences</t>
+  </si>
+  <si>
+    <t>2023-03-11</t>
+  </si>
+  <si>
+    <t>2022-12-17</t>
+  </si>
+  <si>
+    <t>2022-12-25</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>2024-06-11</t>
+  </si>
+  <si>
+    <t>2023-03-30</t>
+  </si>
+  <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-02</t>
+  </si>
+  <si>
+    <t>2023-03-05</t>
+  </si>
+  <si>
+    <t>2023-09-10</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>2023-01-03</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2022-12-22</t>
+  </si>
+  <si>
+    <t>2024-10-08</t>
+  </si>
+  <si>
+    <t>2024-08-21</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2024-05-29</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2023-09-13</t>
+  </si>
+  <si>
+    <t>2023-09-21</t>
+  </si>
+  <si>
+    <t>2024-09-10</t>
+  </si>
+  <si>
+    <t>2025-03-08</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>2024-04-28</t>
+  </si>
+  <si>
+    <t>2023-11-30</t>
+  </si>
+  <si>
+    <t>2024-06-06</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2024-11-03</t>
+  </si>
+  <si>
+    <t>2024-02-23</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +375,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,67 +691,623 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>First Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Last Name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Note Origin Date</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Note Maturity Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Principal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Interest Rate</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Principal + Interest</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Project Name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Months To Maturity</t>
-        </is>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2">
+        <v>18195</v>
+      </c>
+      <c r="H2">
+        <v>8.08</v>
+      </c>
+      <c r="I2">
+        <v>19665.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3">
+        <v>5401</v>
+      </c>
+      <c r="H3">
+        <v>9.01</v>
+      </c>
+      <c r="I3">
+        <v>5887.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4">
+        <v>26185</v>
+      </c>
+      <c r="H4">
+        <v>2.72</v>
+      </c>
+      <c r="I4">
+        <v>26896.82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>36643</v>
+      </c>
+      <c r="H5">
+        <v>3.27</v>
+      </c>
+      <c r="I5">
+        <v>37841.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6">
+        <v>25001</v>
+      </c>
+      <c r="H6">
+        <v>6.45</v>
+      </c>
+      <c r="I6">
+        <v>26613.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7">
+        <v>24107</v>
+      </c>
+      <c r="H7">
+        <v>5.1</v>
+      </c>
+      <c r="I7">
+        <v>25335.98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8">
+        <v>34649</v>
+      </c>
+      <c r="H8">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="I8">
+        <v>37496.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9">
+        <v>45227</v>
+      </c>
+      <c r="H9">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="I9">
+        <v>49242.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10">
+        <v>47664</v>
+      </c>
+      <c r="H10">
+        <v>9.99</v>
+      </c>
+      <c r="I10">
+        <v>52424.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11">
+        <v>36484</v>
+      </c>
+      <c r="H11">
+        <v>7.66</v>
+      </c>
+      <c r="I11">
+        <v>39277.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12">
+        <v>38765</v>
+      </c>
+      <c r="H12">
+        <v>4.79</v>
+      </c>
+      <c r="I12">
+        <v>40620.58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13">
+        <v>48610</v>
+      </c>
+      <c r="H13">
+        <v>6.52</v>
+      </c>
+      <c r="I13">
+        <v>51779.91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14">
+        <v>9216</v>
+      </c>
+      <c r="H14">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="I14">
+        <v>10064.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>31492</v>
+      </c>
+      <c r="H15">
+        <v>4.77</v>
+      </c>
+      <c r="I15">
+        <v>32995.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16">
+        <v>15722</v>
+      </c>
+      <c r="H16">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="I16">
+        <v>17272.38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17">
+        <v>47117</v>
+      </c>
+      <c r="H17">
+        <v>6.64</v>
+      </c>
+      <c r="I17">
+        <v>50243.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18">
+        <v>18934</v>
+      </c>
+      <c r="H18">
+        <v>5.55</v>
+      </c>
+      <c r="I18">
+        <v>19984.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19">
+        <v>9961</v>
+      </c>
+      <c r="H19">
+        <v>2.57</v>
+      </c>
+      <c r="I19">
+        <v>10216.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20">
+        <v>38933</v>
+      </c>
+      <c r="H20">
+        <v>4.28</v>
+      </c>
+      <c r="I20">
+        <v>40599.78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21">
+        <v>24795</v>
+      </c>
+      <c r="H21">
+        <v>7.81</v>
+      </c>
+      <c r="I21">
+        <v>26730.29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/investments.xlsx
+++ b/investments.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>Principal + Interest</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Auto Rollover</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
